--- a/output/pdf_report.xlsx
+++ b/output/pdf_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -476,26 +476,18 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>samco flexi cap fund</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>samco flexi cap fund</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -504,11 +496,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>samco elss tax saver fund</t>
+          <t>360 one focused equity fund</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -517,11 +509,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>samco elss tax saver fund</t>
+          <t>360 one flexicap fund</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -530,11 +522,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>samco active momentum fund</t>
+          <t>360 one quant fund</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -543,11 +535,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>samco active momentum fund</t>
+          <t>360 one elss tax saver nifty 50 index fund</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -556,11 +548,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>samco special opportunities fund</t>
+          <t>360 one balanced hybrid fund</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -569,11 +561,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>samco special opportunities fund</t>
+          <t>360 one balanced hybrid fund</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -582,11 +574,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>samco dynamic asset allocation fund</t>
+          <t>360 one dynamic bond fund</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -595,24 +587,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>samco dynamic asset allocation fund</t>
+          <t>360 one liquid fund</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>samco overnight fund</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -621,60 +609,6 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="n">
         <v>0</v>
       </c>
     </row>
